--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AvinashThakur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\git\lovebabbar450questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:K482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G477" sqref="G477"/>
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
